--- a/SANTANA_DO_LIVRAMENTO.xlsx
+++ b/SANTANA_DO_LIVRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2B5929-3A47-4F38-8224-184375813F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE628297-EFD4-425F-BA88-1868CAD06A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,7 +1282,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D996050F-3667-4527-A0F9-4EC34FB42FA9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3AC9EE71-8755-4564-B447-5A594A6C7966}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,10 +1312,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11B885B-4EBE-473F-93F2-9047E9722552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767D8929-E1B9-4BBE-A94E-6A42838FD1CF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50C6526-8E33-48E4-8812-EC057EA13AAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C4FD0-6EC2-4A6B-A58C-28E002E054C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1416,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D624A2E-D9AF-4089-86DE-A838265D4719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B1FC9F-69D1-4FA2-9738-C2C40A472815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1435,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576CFFFC-39AE-D3AF-5238-75D1E0660871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F3524D-EDF9-04CA-F521-100BB5040D6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1484,7 +1484,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D77CDA-4751-9766-ED7E-D86F4C644184}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1434678D-F4A7-BEC4-D9BD-39866E8526E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9A2DA2-BEFC-D77A-46ED-FECD5363FABB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6D1C1A-5559-238A-EB6E-C2B0225D20EB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1534,7 +1534,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9155BCD9-3DC3-7CD5-E6ED-5E3C16FD1639}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189724D5-ADC6-1D4B-4B32-C4FDF5EDFB68}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948EFD20-159E-A485-BAC8-4D3267A4FE45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D0E482-0C62-59A4-8B8C-D6A50F807AAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF5E075-322B-404C-B7F2-875A0AD3013A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE3F454-3E82-4640-AF2E-4419FEB61C90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1646,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D7BDB3-396D-496C-9646-D1BC35980B0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2427A734-CAE8-45CE-92F1-B983BA0D2BAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1689,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F239703-E7B3-4627-A8AF-066899967918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCEFAD5-C078-45A6-9FFB-0A7E32C59288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B517C148-2CC1-4BB1-AD78-1D0B440F6060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D08F1-B359-4966-AF12-0822B98BEA33}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTANA_DO_LIVRAMENTO.xlsx
+++ b/SANTANA_DO_LIVRAMENTO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE628297-EFD4-425F-BA88-1868CAD06A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EF0902-B15C-473E-877B-C54DF474F3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="323">
   <si>
     <t>COMARCA</t>
   </si>
@@ -996,12 +995,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,27 +1255,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3AC9EE71-8755-4564-B447-5A594A6C7966}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9D42B790-BB42-46EC-9315-E8BAA24F3209}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,10 +1290,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767D8929-E1B9-4BBE-A94E-6A42838FD1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38259B7-7A4B-4AF7-BEDF-982BA2EDBA1E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37C4FD0-6EC2-4A6B-A58C-28E002E054C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE25D1F-373A-49BB-8982-EBA503BEEB0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1394,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B1FC9F-69D1-4FA2-9738-C2C40A472815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C693C0B-28FD-4BF8-9446-E94F31219DD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1413,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F3524D-EDF9-04CA-F521-100BB5040D6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CE01DA-F32A-FCC9-B544-0E1B2C07C375}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1484,7 +1462,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1434678D-F4A7-BEC4-D9BD-39866E8526E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F083D41-B43E-B4FF-0300-C9FB8FA1C1E0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1503,7 +1481,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6D1C1A-5559-238A-EB6E-C2B0225D20EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE29014-8B3C-DBC5-9A70-15FE22B350B2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1534,7 +1512,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189724D5-ADC6-1D4B-4B32-C4FDF5EDFB68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197975D7-AAB8-C35C-B00C-DC802EAC163C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,7 +1543,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D0E482-0C62-59A4-8B8C-D6A50F807AAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF75A89-D50F-4915-4423-2D5D1F5FF64D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1586,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE3F454-3E82-4640-AF2E-4419FEB61C90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51686CA5-A7F0-46E5-8101-92AF350885CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1624,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2427A734-CAE8-45CE-92F1-B983BA0D2BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E55324D-91D6-4486-ACE6-BE4CB98819E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1667,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCEFAD5-C078-45A6-9FFB-0A7E32C59288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3113964C-DC2A-4CAD-B970-C5A3D96C03CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562D08F1-B359-4966-AF12-0822B98BEA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49EDE8-229F-4FC7-A388-3470AC22E2AE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2014,98 +1992,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5878,52 +5856,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="35">
-        <v>94</v>
-      </c>
-      <c r="C2" s="33">
-        <v>6.2161089802936116E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTANA_DO_LIVRAMENTO.xlsx
+++ b/SANTANA_DO_LIVRAMENTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EF0902-B15C-473E-877B-C54DF474F3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{389D71D0-F230-44F7-8EA4-C3802EA34F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9D42B790-BB42-46EC-9315-E8BAA24F3209}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E5E32BD9-DF9D-488F-B50D-BB9BCE532A88}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1290,10 +1290,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38259B7-7A4B-4AF7-BEDF-982BA2EDBA1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613AD9D1-6766-4722-B67F-CD0E32270118}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE25D1F-373A-49BB-8982-EBA503BEEB0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06432E10-42A7-4C48-B2BD-831BA46642B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1394,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C693C0B-28FD-4BF8-9446-E94F31219DD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196189FA-5DD0-49B9-B843-78AAAA99D4C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1413,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CE01DA-F32A-FCC9-B544-0E1B2C07C375}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF6E82F-E826-D749-F680-70396BE45932}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F083D41-B43E-B4FF-0300-C9FB8FA1C1E0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32447AB6-3033-8E07-5E2E-9814C50D3332}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1481,7 +1481,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE29014-8B3C-DBC5-9A70-15FE22B350B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFA0F00-DA4C-8DC6-A3BF-4390EA263A8F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197975D7-AAB8-C35C-B00C-DC802EAC163C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A3155A-29CD-9F9E-AAA9-0E0D24BF1213}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF75A89-D50F-4915-4423-2D5D1F5FF64D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE419C6-ECDB-4EF9-C8BE-C3457212C1E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1586,7 +1586,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51686CA5-A7F0-46E5-8101-92AF350885CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3810AB-0893-4E56-87D0-D6B610C52203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1624,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E55324D-91D6-4486-ACE6-BE4CB98819E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4791CA92-FABE-413A-950A-7CBC5548B0C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,50 +1649,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3113964C-DC2A-4CAD-B970-C5A3D96C03CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1980,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49EDE8-229F-4FC7-A388-3470AC22E2AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A85970F-8F64-4916-93DE-3465229B256E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
